--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.66155845254161</v>
+        <v>6.312015</v>
       </c>
       <c r="H2">
-        <v>4.66155845254161</v>
+        <v>18.936045</v>
       </c>
       <c r="I2">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="J2">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>340.4284085519517</v>
+        <v>598.378081509765</v>
       </c>
       <c r="R2">
-        <v>340.4284085519517</v>
+        <v>5385.402733587885</v>
       </c>
       <c r="S2">
-        <v>0.004974756831114079</v>
+        <v>0.007819368336483008</v>
       </c>
       <c r="T2">
-        <v>0.004974756831114079</v>
+        <v>0.007819368336483008</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.66155845254161</v>
+        <v>6.312015</v>
       </c>
       <c r="H3">
-        <v>4.66155845254161</v>
+        <v>18.936045</v>
       </c>
       <c r="I3">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="J3">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>675.4116514692886</v>
+        <v>919.2904657724399</v>
       </c>
       <c r="R3">
-        <v>675.4116514692886</v>
+        <v>8273.61419195196</v>
       </c>
       <c r="S3">
-        <v>0.009869942233237932</v>
+        <v>0.01201292457430098</v>
       </c>
       <c r="T3">
-        <v>0.009869942233237932</v>
+        <v>0.01201292457430098</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.66155845254161</v>
+        <v>6.312015</v>
       </c>
       <c r="H4">
-        <v>4.66155845254161</v>
+        <v>18.936045</v>
       </c>
       <c r="I4">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="J4">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>317.0780822982512</v>
+        <v>459.36301848756</v>
       </c>
       <c r="R4">
-        <v>317.0780822982512</v>
+        <v>4134.26716638804</v>
       </c>
       <c r="S4">
-        <v>0.004633533266566551</v>
+        <v>0.006002774420898083</v>
       </c>
       <c r="T4">
-        <v>0.004633533266566551</v>
+        <v>0.006002774420898083</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.66155845254161</v>
+        <v>6.312015</v>
       </c>
       <c r="H5">
-        <v>4.66155845254161</v>
+        <v>18.936045</v>
       </c>
       <c r="I5">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="J5">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>355.8934625942435</v>
+        <v>482.15023003155</v>
       </c>
       <c r="R5">
-        <v>355.8934625942435</v>
+        <v>4339.352070283951</v>
       </c>
       <c r="S5">
-        <v>0.005200751140953527</v>
+        <v>0.00630054869761331</v>
       </c>
       <c r="T5">
-        <v>0.005200751140953527</v>
+        <v>0.00630054869761331</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.66155845254161</v>
+        <v>6.312015</v>
       </c>
       <c r="H6">
-        <v>4.66155845254161</v>
+        <v>18.936045</v>
       </c>
       <c r="I6">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="J6">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>265.7634576679868</v>
+        <v>367.2764972352899</v>
       </c>
       <c r="R6">
-        <v>265.7634576679868</v>
+        <v>3305.48847511761</v>
       </c>
       <c r="S6">
-        <v>0.00388366112604422</v>
+        <v>0.004799424146636542</v>
       </c>
       <c r="T6">
-        <v>0.00388366112604422</v>
+        <v>0.004799424146636542</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.66155845254161</v>
+        <v>6.312015</v>
       </c>
       <c r="H7">
-        <v>4.66155845254161</v>
+        <v>18.936045</v>
       </c>
       <c r="I7">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="J7">
-        <v>0.03590248855317176</v>
+        <v>0.04648952252977664</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>502.2740772130769</v>
+        <v>731.1578857383749</v>
       </c>
       <c r="R7">
-        <v>502.2740772130769</v>
+        <v>6580.420971645374</v>
       </c>
       <c r="S7">
-        <v>0.007339843955255448</v>
+        <v>0.009554482353844724</v>
       </c>
       <c r="T7">
-        <v>0.007339843955255448</v>
+        <v>0.009554482353844724</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>43.2372245241395</v>
+        <v>43.425509</v>
       </c>
       <c r="H8">
-        <v>43.2372245241395</v>
+        <v>130.276527</v>
       </c>
       <c r="I8">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="J8">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>3157.566227005247</v>
+        <v>4116.731782799159</v>
       </c>
       <c r="R8">
-        <v>3157.566227005247</v>
+        <v>37050.58604519243</v>
       </c>
       <c r="S8">
-        <v>0.04614222480522595</v>
+        <v>0.0537958243239691</v>
       </c>
       <c r="T8">
-        <v>0.04614222480522595</v>
+        <v>0.05379582432396911</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>43.2372245241395</v>
+        <v>43.425509</v>
       </c>
       <c r="H9">
-        <v>43.2372245241395</v>
+        <v>130.276527</v>
       </c>
       <c r="I9">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="J9">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>6264.627059406548</v>
+        <v>6324.550305253596</v>
       </c>
       <c r="R9">
-        <v>6264.627059406548</v>
+        <v>56920.95274728237</v>
       </c>
       <c r="S9">
-        <v>0.09154640293014454</v>
+        <v>0.08264672441647056</v>
       </c>
       <c r="T9">
-        <v>0.09154640293014454</v>
+        <v>0.08264672441647058</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.2372245241395</v>
+        <v>43.425509</v>
       </c>
       <c r="H10">
-        <v>43.2372245241395</v>
+        <v>130.276527</v>
       </c>
       <c r="I10">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="J10">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>2940.985590031211</v>
+        <v>3160.333569169069</v>
       </c>
       <c r="R10">
-        <v>2940.985590031211</v>
+        <v>28443.00212252162</v>
       </c>
       <c r="S10">
-        <v>0.0429772832897496</v>
+        <v>0.04129799036277313</v>
       </c>
       <c r="T10">
-        <v>0.0429772832897496</v>
+        <v>0.04129799036277313</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>43.2372245241395</v>
+        <v>43.425509</v>
       </c>
       <c r="H11">
-        <v>43.2372245241395</v>
+        <v>130.276527</v>
       </c>
       <c r="I11">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="J11">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>3301.008816154793</v>
+        <v>3317.105417776597</v>
       </c>
       <c r="R11">
-        <v>3301.008816154793</v>
+        <v>29853.94875998937</v>
       </c>
       <c r="S11">
-        <v>0.04823838359314774</v>
+        <v>0.04334662293628026</v>
       </c>
       <c r="T11">
-        <v>0.04823838359314774</v>
+        <v>0.04334662293628026</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.2372245241395</v>
+        <v>43.425509</v>
       </c>
       <c r="H12">
-        <v>43.2372245241395</v>
+        <v>130.276527</v>
       </c>
       <c r="I12">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="J12">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>2465.028467729981</v>
+        <v>2526.795141674974</v>
       </c>
       <c r="R12">
-        <v>2465.028467729981</v>
+        <v>22741.15627507476</v>
       </c>
       <c r="S12">
-        <v>0.03602201491024798</v>
+        <v>0.03301916051761323</v>
       </c>
       <c r="T12">
-        <v>0.03602201491024798</v>
+        <v>0.03301916051761323</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.2372245241395</v>
+        <v>43.425509</v>
       </c>
       <c r="H13">
-        <v>43.2372245241395</v>
+        <v>130.276527</v>
       </c>
       <c r="I13">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="J13">
-        <v>0.333005361694535</v>
+        <v>0.3198394140417154</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N13">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q13">
-        <v>4658.728892968426</v>
+        <v>5030.232556093858</v>
       </c>
       <c r="R13">
-        <v>4658.728892968426</v>
+        <v>45272.09300484471</v>
       </c>
       <c r="S13">
-        <v>0.06807905216601919</v>
+        <v>0.06573309148460915</v>
       </c>
       <c r="T13">
-        <v>0.06807905216601919</v>
+        <v>0.06573309148460915</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.1272572111049</v>
+        <v>31.488932</v>
       </c>
       <c r="H14">
-        <v>28.1272572111049</v>
+        <v>94.466796</v>
       </c>
       <c r="I14">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="J14">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N14">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q14">
-        <v>2054.102186380849</v>
+        <v>2985.146061749133</v>
       </c>
       <c r="R14">
-        <v>2054.102186380849</v>
+        <v>26866.31455574219</v>
       </c>
       <c r="S14">
-        <v>0.03001705682252149</v>
+        <v>0.03900870923634791</v>
       </c>
       <c r="T14">
-        <v>0.03001705682252149</v>
+        <v>0.03900870923634792</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.1272572111049</v>
+        <v>31.488932</v>
       </c>
       <c r="H15">
-        <v>28.1272572111049</v>
+        <v>94.466796</v>
       </c>
       <c r="I15">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="J15">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N15">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q15">
-        <v>4075.34892840309</v>
+        <v>4586.090965398005</v>
       </c>
       <c r="R15">
-        <v>4075.34892840309</v>
+        <v>41274.81868858205</v>
       </c>
       <c r="S15">
-        <v>0.05955398965375355</v>
+        <v>0.0599292246677634</v>
       </c>
       <c r="T15">
-        <v>0.05955398965375355</v>
+        <v>0.05992922466776341</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>28.1272572111049</v>
+        <v>31.488932</v>
       </c>
       <c r="H16">
-        <v>28.1272572111049</v>
+        <v>94.466796</v>
       </c>
       <c r="I16">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="J16">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N16">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q16">
-        <v>1913.209255575068</v>
+        <v>2291.637591556661</v>
       </c>
       <c r="R16">
-        <v>1913.209255575068</v>
+        <v>20624.73832400995</v>
       </c>
       <c r="S16">
-        <v>0.02795815676490547</v>
+        <v>0.02994621456872316</v>
       </c>
       <c r="T16">
-        <v>0.02795815676490547</v>
+        <v>0.02994621456872316</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>28.1272572111049</v>
+        <v>31.488932</v>
       </c>
       <c r="H17">
-        <v>28.1272572111049</v>
+        <v>94.466796</v>
       </c>
       <c r="I17">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="J17">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N17">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q17">
-        <v>2147.416376744377</v>
+        <v>2405.316813608307</v>
       </c>
       <c r="R17">
-        <v>2147.416376744377</v>
+        <v>21647.85132247476</v>
       </c>
       <c r="S17">
-        <v>0.03138067805473719</v>
+        <v>0.03143172972526746</v>
       </c>
       <c r="T17">
-        <v>0.03138067805473719</v>
+        <v>0.03143172972526746</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>28.1272572111049</v>
+        <v>31.488932</v>
       </c>
       <c r="H18">
-        <v>28.1272572111049</v>
+        <v>94.466796</v>
       </c>
       <c r="I18">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="J18">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N18">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O18">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P18">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q18">
-        <v>1603.58326667863</v>
+        <v>1832.242896545752</v>
       </c>
       <c r="R18">
-        <v>1603.58326667863</v>
+        <v>16490.18606891177</v>
       </c>
       <c r="S18">
-        <v>0.02343352261376368</v>
+        <v>0.02394302621153405</v>
       </c>
       <c r="T18">
-        <v>0.02343352261376368</v>
+        <v>0.02394302621153405</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>28.1272572111049</v>
+        <v>31.488932</v>
       </c>
       <c r="H19">
-        <v>28.1272572111049</v>
+        <v>94.466796</v>
       </c>
       <c r="I19">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="J19">
-        <v>0.2166310988770762</v>
+        <v>0.2319236271860261</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N19">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q19">
-        <v>3030.658588554183</v>
+        <v>3647.548515851033</v>
       </c>
       <c r="R19">
-        <v>3030.658588554183</v>
+        <v>32827.9366426593</v>
       </c>
       <c r="S19">
-        <v>0.04428769496739475</v>
+        <v>0.04766472277639018</v>
       </c>
       <c r="T19">
-        <v>0.04428769496739475</v>
+        <v>0.04766472277639018</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>28.6563375962428</v>
+        <v>28.68151333333333</v>
       </c>
       <c r="H20">
-        <v>28.6563375962428</v>
+        <v>86.04454</v>
       </c>
       <c r="I20">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882572</v>
       </c>
       <c r="J20">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882573</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N20">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q20">
-        <v>2092.740336120309</v>
+        <v>2719.003190454513</v>
       </c>
       <c r="R20">
-        <v>2092.740336120309</v>
+        <v>24471.02871409062</v>
       </c>
       <c r="S20">
-        <v>0.03058168478696075</v>
+        <v>0.03553085935332566</v>
       </c>
       <c r="T20">
-        <v>0.03058168478696075</v>
+        <v>0.03553085935332567</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>28.6563375962428</v>
+        <v>28.68151333333333</v>
       </c>
       <c r="H21">
-        <v>28.6563375962428</v>
+        <v>86.04454</v>
       </c>
       <c r="I21">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882572</v>
       </c>
       <c r="J21">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882573</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N21">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q21">
-        <v>4152.007209174226</v>
+        <v>4177.214685208834</v>
       </c>
       <c r="R21">
-        <v>4152.007209174226</v>
+        <v>37594.93216687952</v>
       </c>
       <c r="S21">
-        <v>0.06067421433638155</v>
+        <v>0.05458619099449879</v>
       </c>
       <c r="T21">
-        <v>0.06067421433638155</v>
+        <v>0.0545861909944988</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>28.6563375962428</v>
+        <v>28.68151333333333</v>
       </c>
       <c r="H22">
-        <v>28.6563375962428</v>
+        <v>86.04454</v>
       </c>
       <c r="I22">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882572</v>
       </c>
       <c r="J22">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882573</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N22">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q22">
-        <v>1949.197175840162</v>
+        <v>2087.324973022276</v>
       </c>
       <c r="R22">
-        <v>1949.197175840162</v>
+        <v>18785.92475720048</v>
       </c>
       <c r="S22">
-        <v>0.0284840563305084</v>
+        <v>0.02727633799824313</v>
       </c>
       <c r="T22">
-        <v>0.0284840563305084</v>
+        <v>0.02727633799824314</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>28.6563375962428</v>
+        <v>28.68151333333333</v>
       </c>
       <c r="H23">
-        <v>28.6563375962428</v>
+        <v>86.04454</v>
       </c>
       <c r="I23">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882572</v>
       </c>
       <c r="J23">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882573</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N23">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q23">
-        <v>2187.809788555991</v>
+        <v>2190.869041236378</v>
       </c>
       <c r="R23">
-        <v>2187.809788555991</v>
+        <v>19717.8213711274</v>
       </c>
       <c r="S23">
-        <v>0.03197095605825805</v>
+        <v>0.02862941096906647</v>
       </c>
       <c r="T23">
-        <v>0.03197095605825805</v>
+        <v>0.02862941096906648</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>28.6563375962428</v>
+        <v>28.68151333333333</v>
       </c>
       <c r="H24">
-        <v>28.6563375962428</v>
+        <v>86.04454</v>
       </c>
       <c r="I24">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882572</v>
       </c>
       <c r="J24">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882573</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N24">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O24">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P24">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q24">
-        <v>1633.747048591928</v>
+        <v>1668.887946634146</v>
       </c>
       <c r="R24">
-        <v>1633.747048591928</v>
+        <v>15019.99151970732</v>
       </c>
       <c r="S24">
-        <v>0.02387431273690206</v>
+        <v>0.02180836827131715</v>
       </c>
       <c r="T24">
-        <v>0.02387431273690206</v>
+        <v>0.02180836827131715</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>28.6563375962428</v>
+        <v>28.68151333333333</v>
       </c>
       <c r="H25">
-        <v>28.6563375962428</v>
+        <v>86.04454</v>
       </c>
       <c r="I25">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882572</v>
       </c>
       <c r="J25">
-        <v>0.2207059812719895</v>
+        <v>0.2112463072882573</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N25">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q25">
-        <v>3087.665996038645</v>
+        <v>3322.348671316055</v>
       </c>
       <c r="R25">
-        <v>3087.665996038645</v>
+        <v>29901.13804184449</v>
       </c>
       <c r="S25">
-        <v>0.04512075702297861</v>
+        <v>0.04341513970180608</v>
       </c>
       <c r="T25">
-        <v>0.04512075702297861</v>
+        <v>0.04341513970180608</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.2812745705708</v>
+        <v>14.57928733333333</v>
       </c>
       <c r="H26">
-        <v>14.2812745705708</v>
+        <v>43.737862</v>
       </c>
       <c r="I26">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="J26">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N26">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q26">
-        <v>1042.945534985647</v>
+        <v>1382.114266886187</v>
       </c>
       <c r="R26">
-        <v>1042.945534985647</v>
+        <v>12439.02840197569</v>
       </c>
       <c r="S26">
-        <v>0.01524079746082058</v>
+        <v>0.01806092313512475</v>
       </c>
       <c r="T26">
-        <v>0.01524079746082058</v>
+        <v>0.01806092313512475</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.2812745705708</v>
+        <v>14.57928733333333</v>
       </c>
       <c r="H27">
-        <v>14.2812745705708</v>
+        <v>43.737862</v>
       </c>
       <c r="I27">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="J27">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N27">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q27">
-        <v>2069.209115577314</v>
+        <v>2123.347273935539</v>
       </c>
       <c r="R27">
-        <v>2069.209115577314</v>
+        <v>19110.12546541986</v>
       </c>
       <c r="S27">
-        <v>0.0302378177735154</v>
+        <v>0.02774706319335348</v>
       </c>
       <c r="T27">
-        <v>0.0302378177735154</v>
+        <v>0.02774706319335348</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.2812745705708</v>
+        <v>14.57928733333333</v>
       </c>
       <c r="H28">
-        <v>14.2812745705708</v>
+        <v>43.737862</v>
       </c>
       <c r="I28">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="J28">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N28">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q28">
-        <v>971.4088538656911</v>
+        <v>1061.021787311572</v>
       </c>
       <c r="R28">
-        <v>971.4088538656911</v>
+        <v>9549.196085804144</v>
       </c>
       <c r="S28">
-        <v>0.01419541586475903</v>
+        <v>0.01386501348293006</v>
       </c>
       <c r="T28">
-        <v>0.01419541586475903</v>
+        <v>0.01386501348293006</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.2812745705708</v>
+        <v>14.57928733333333</v>
       </c>
       <c r="H29">
-        <v>14.2812745705708</v>
+        <v>43.737862</v>
       </c>
       <c r="I29">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="J29">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N29">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q29">
-        <v>1090.324686244872</v>
+        <v>1113.654948770358</v>
       </c>
       <c r="R29">
-        <v>1090.324686244872</v>
+        <v>10022.89453893322</v>
       </c>
       <c r="S29">
-        <v>0.01593315964464005</v>
+        <v>0.01455280284032334</v>
       </c>
       <c r="T29">
-        <v>0.01593315964464005</v>
+        <v>0.01455280284032335</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.2812745705708</v>
+        <v>14.57928733333333</v>
       </c>
       <c r="H30">
-        <v>14.2812745705708</v>
+        <v>43.737862</v>
       </c>
       <c r="I30">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="J30">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N30">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O30">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P30">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q30">
-        <v>814.2000038016062</v>
+        <v>848.3233300259105</v>
       </c>
       <c r="R30">
-        <v>814.2000038016062</v>
+        <v>7634.909970233195</v>
       </c>
       <c r="S30">
-        <v>0.01189808761270587</v>
+        <v>0.01108555408508254</v>
       </c>
       <c r="T30">
-        <v>0.01189808761270587</v>
+        <v>0.01108555408508254</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>14.2812745705708</v>
+        <v>14.57928733333333</v>
       </c>
       <c r="H31">
-        <v>14.2812745705708</v>
+        <v>43.737862</v>
       </c>
       <c r="I31">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="J31">
-        <v>0.1099918196917739</v>
+        <v>0.1073799899003864</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N31">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q31">
-        <v>1538.780233989997</v>
+        <v>1688.804748121205</v>
       </c>
       <c r="R31">
-        <v>1538.780233989997</v>
+        <v>15199.24273309085</v>
       </c>
       <c r="S31">
-        <v>0.02248654133533291</v>
+        <v>0.02206863316357221</v>
       </c>
       <c r="T31">
-        <v>0.02248654133533291</v>
+        <v>0.02206863316357221</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>10.8757721643392</v>
+        <v>11.285594</v>
       </c>
       <c r="H32">
-        <v>10.8757721643392</v>
+        <v>33.856782</v>
       </c>
       <c r="I32">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="J32">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N32">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q32">
-        <v>794.2454969455433</v>
+        <v>1069.872629646494</v>
       </c>
       <c r="R32">
-        <v>794.2454969455433</v>
+        <v>9628.853666818448</v>
       </c>
       <c r="S32">
-        <v>0.01160648792008338</v>
+        <v>0.01398067279339523</v>
       </c>
       <c r="T32">
-        <v>0.01160648792008338</v>
+        <v>0.01398067279339524</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>10.8757721643392</v>
+        <v>11.285594</v>
       </c>
       <c r="H33">
-        <v>10.8757721643392</v>
+        <v>33.856782</v>
       </c>
       <c r="I33">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="J33">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N33">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q33">
-        <v>1575.787006277916</v>
+        <v>1643.649288662757</v>
       </c>
       <c r="R33">
-        <v>1575.787006277916</v>
+        <v>14792.84359796482</v>
       </c>
       <c r="S33">
-        <v>0.02302732961448944</v>
+        <v>0.02147855946131049</v>
       </c>
       <c r="T33">
-        <v>0.02302732961448944</v>
+        <v>0.02147855946131049</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>10.8757721643392</v>
+        <v>11.285594</v>
       </c>
       <c r="H34">
-        <v>10.8757721643392</v>
+        <v>33.856782</v>
       </c>
       <c r="I34">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="J34">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N34">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q34">
-        <v>739.7674010718827</v>
+        <v>821.3200578999094</v>
       </c>
       <c r="R34">
-        <v>739.7674010718827</v>
+        <v>7391.880521099184</v>
       </c>
       <c r="S34">
-        <v>0.0108103872634244</v>
+        <v>0.01073268599454229</v>
       </c>
       <c r="T34">
-        <v>0.0108103872634244</v>
+        <v>0.01073268599454229</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>10.8757721643392</v>
+        <v>11.285594</v>
       </c>
       <c r="H35">
-        <v>10.8757721643392</v>
+        <v>33.856782</v>
       </c>
       <c r="I35">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="J35">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N35">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q35">
-        <v>830.3266500589308</v>
+        <v>862.0625494620468</v>
       </c>
       <c r="R35">
-        <v>830.3266500589308</v>
+        <v>7758.562945158422</v>
       </c>
       <c r="S35">
-        <v>0.01213374991824857</v>
+        <v>0.01126509277599825</v>
       </c>
       <c r="T35">
-        <v>0.01213374991824857</v>
+        <v>0.01126509277599825</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>10.8757721643392</v>
+        <v>11.285594</v>
       </c>
       <c r="H36">
-        <v>10.8757721643392</v>
+        <v>33.856782</v>
       </c>
       <c r="I36">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="J36">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N36">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O36">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P36">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q36">
-        <v>620.0464597045036</v>
+        <v>656.673571520284</v>
       </c>
       <c r="R36">
-        <v>620.0464597045036</v>
+        <v>5910.062143682556</v>
       </c>
       <c r="S36">
-        <v>0.009060878244984515</v>
+        <v>0.008581150766076519</v>
       </c>
       <c r="T36">
-        <v>0.009060878244984515</v>
+        <v>0.008581150766076521</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>10.8757721643392</v>
+        <v>11.285594</v>
       </c>
       <c r="H37">
-        <v>10.8757721643392</v>
+        <v>33.856782</v>
       </c>
       <c r="I37">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="J37">
-        <v>0.08376324991145369</v>
+        <v>0.08312113905383814</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N37">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q37">
-        <v>1171.843812200782</v>
+        <v>1307.276843977983</v>
       </c>
       <c r="R37">
-        <v>1171.843812200782</v>
+        <v>11765.49159580185</v>
       </c>
       <c r="S37">
-        <v>0.01712441695022337</v>
+        <v>0.01708297726251536</v>
       </c>
       <c r="T37">
-        <v>0.01712441695022337</v>
+        <v>0.01708297726251536</v>
       </c>
     </row>
   </sheetData>
